--- a/Excel-XLSX/UN-KUW.xlsx
+++ b/Excel-XLSX/UN-KUW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="622">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>79QPrw</t>
+    <t>8DOtl2</t>
   </si>
   <si>
     <t>1979</t>
@@ -1878,22 +1878,10 @@
     <t>424</t>
   </si>
   <si>
-    <t>440</t>
-  </si>
-  <si>
     <t>425</t>
   </si>
   <si>
     <t>426</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>429</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2266,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V430"/>
+  <dimension ref="A1:V427"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -30550,7 +30538,7 @@
         <v>43</v>
       </c>
       <c r="O416" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="P416" s="2" t="s">
         <v>33</v>
@@ -30683,10 +30671,10 @@
         <v>31</v>
       </c>
       <c r="N418" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O418" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="P418" s="2" t="s">
         <v>33</v>
@@ -30727,16 +30715,16 @@
         <v>615</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="J419" s="2" t="s">
         <v>28</v>
@@ -30754,7 +30742,7 @@
         <v>33</v>
       </c>
       <c r="O419" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P419" s="2" t="s">
         <v>33</v>
@@ -30795,16 +30783,16 @@
         <v>615</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="I420" s="1" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="J420" s="2" t="s">
         <v>28</v>
@@ -30819,10 +30807,10 @@
         <v>31</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O420" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="P420" s="2" t="s">
         <v>33</v>
@@ -30863,16 +30851,16 @@
         <v>615</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>28</v>
@@ -30887,10 +30875,10 @@
         <v>31</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>52</v>
+        <v>365</v>
       </c>
       <c r="O421" s="2" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="P421" s="2" t="s">
         <v>33</v>
@@ -30931,16 +30919,16 @@
         <v>615</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J422" s="2" t="s">
         <v>28</v>
@@ -30955,10 +30943,10 @@
         <v>31</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>409</v>
+        <v>269</v>
       </c>
       <c r="O422" s="2" t="s">
-        <v>415</v>
+        <v>591</v>
       </c>
       <c r="P422" s="2" t="s">
         <v>33</v>
@@ -30999,16 +30987,16 @@
         <v>615</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="J423" s="2" t="s">
         <v>28</v>
@@ -31026,7 +31014,7 @@
         <v>33</v>
       </c>
       <c r="O423" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P423" s="2" t="s">
         <v>33</v>
@@ -31038,7 +31026,7 @@
         <v>33</v>
       </c>
       <c r="S423" s="2" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="T423" s="2" t="s">
         <v>33</v>
@@ -31067,16 +31055,16 @@
         <v>615</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="J424" s="2" t="s">
         <v>28</v>
@@ -31094,7 +31082,7 @@
         <v>33</v>
       </c>
       <c r="O424" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="P424" s="2" t="s">
         <v>33</v>
@@ -31135,16 +31123,16 @@
         <v>615</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="J425" s="2" t="s">
         <v>28</v>
@@ -31159,10 +31147,10 @@
         <v>31</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="O425" s="2" t="s">
-        <v>620</v>
+        <v>198</v>
       </c>
       <c r="P425" s="2" t="s">
         <v>33</v>
@@ -31197,22 +31185,22 @@
         <v>22</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>615</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>28</v>
@@ -31242,10 +31230,10 @@
         <v>33</v>
       </c>
       <c r="S426" s="2" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="T426" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="U426" s="1" t="s">
         <v>34</v>
@@ -31265,22 +31253,22 @@
         <v>22</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>615</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>108</v>
+        <v>363</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>109</v>
+        <v>364</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>110</v>
+        <v>364</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>28</v>
@@ -31295,10 +31283,10 @@
         <v>31</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O427" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="P427" s="2" t="s">
         <v>33</v>
@@ -31319,210 +31307,6 @@
         <v>34</v>
       </c>
       <c r="V427" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G428" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H428" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I428" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J428" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K428" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L428" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M428" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N428" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="O428" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P428" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q428" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R428" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S428" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T428" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U428" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V428" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="F429" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H429" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I429" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J429" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K429" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L429" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M429" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N429" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O429" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P429" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q429" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R429" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S429" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T429" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U429" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V429" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E430" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="F430" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G430" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H430" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="I430" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J430" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K430" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L430" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M430" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N430" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T430" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U430" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V430" s="2" t="s">
         <v>33</v>
       </c>
     </row>
